--- a/documentation/LagIncreasePr.xlsx
+++ b/documentation/LagIncreasePr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A4A64C-30C6-094B-A69D-63458DBF0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E011B-56DD-254D-9541-4A431FB2A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="1" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0BC06-4B5F-5E44-B85D-91F6002FB6E7}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84112A7D-F4C8-A845-B106-97CD528152F5}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreasePr.xlsx
+++ b/documentation/LagIncreasePr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E011B-56DD-254D-9541-4A431FB2A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554373F-E7BC-6D42-AF77-D454032BAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="1" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0BC06-4B5F-5E44-B85D-91F6002FB6E7}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84112A7D-F4C8-A845-B106-97CD528152F5}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreasePr.xlsx
+++ b/documentation/LagIncreasePr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C8822-DC71-1341-B2FF-7E630282B749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3E98D-8DAC-8F4D-8FCC-AF4468A73783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0BC06-4B5F-5E44-B85D-91F6002FB6E7}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC32793-F8E6-1741-B913-C4A6CC331DB3}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreasePr.xlsx
+++ b/documentation/LagIncreasePr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3E98D-8DAC-8F4D-8FCC-AF4468A73783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F451A9-CF10-AE46-8937-6618D983BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA2B74-2347-0347-86D2-F6AB4B814569}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -443,64 +443,421 @@
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>46</v>
+      </c>
+      <c r="D1">
+        <v>60</v>
+      </c>
+      <c r="E1">
+        <v>57</v>
+      </c>
+      <c r="F1">
+        <v>61</v>
+      </c>
+      <c r="G1">
+        <v>52</v>
+      </c>
+      <c r="H1">
+        <v>63</v>
+      </c>
+      <c r="I1">
+        <v>54</v>
+      </c>
+      <c r="J1">
+        <v>56</v>
+      </c>
+      <c r="K1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>135</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>315</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>47</v>
+      </c>
+      <c r="J3">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>48</v>
+      </c>
+      <c r="K7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>118</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>92</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>115</v>
+      </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>74</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0BC06-4B5F-5E44-B85D-91F6002FB6E7}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC32793-F8E6-1741-B913-C4A6CC331DB3}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreasePr.xlsx
+++ b/documentation/LagIncreasePr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -87,6 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -440,424 +441,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>46</v>
-      </c>
-      <c r="D1">
-        <v>60</v>
-      </c>
-      <c r="E1">
-        <v>57</v>
-      </c>
-      <c r="F1">
-        <v>61</v>
-      </c>
-      <c r="G1">
-        <v>52</v>
-      </c>
-      <c r="H1">
-        <v>63</v>
-      </c>
-      <c r="I1">
-        <v>54</v>
-      </c>
-      <c r="J1">
-        <v>56</v>
-      </c>
-      <c r="K1">
-        <v>104</v>
+      <c r="B1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>180</v>
-      </c>
-      <c r="D2">
-        <v>52</v>
-      </c>
-      <c r="E2">
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <v>45</v>
-      </c>
-      <c r="G2">
-        <v>61</v>
-      </c>
-      <c r="H2">
-        <v>135</v>
-      </c>
-      <c r="I2">
-        <v>47</v>
-      </c>
-      <c r="J2">
-        <v>46</v>
-      </c>
-      <c r="K2">
-        <v>57</v>
+      <c r="B2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>20.0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>315</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>46</v>
-      </c>
-      <c r="H3">
-        <v>78</v>
-      </c>
-      <c r="I3">
-        <v>47</v>
-      </c>
-      <c r="J3">
-        <v>48</v>
-      </c>
-      <c r="K3">
-        <v>52</v>
+      <c r="B3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>19.0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>53</v>
-      </c>
-      <c r="H4">
-        <v>72</v>
-      </c>
-      <c r="I4">
-        <v>44</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>42</v>
+      <c r="B4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>43</v>
-      </c>
-      <c r="I5">
-        <v>42</v>
-      </c>
-      <c r="J5">
-        <v>47</v>
-      </c>
-      <c r="K5">
-        <v>43</v>
+      <c r="B5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
-      </c>
-      <c r="G6">
-        <v>46</v>
-      </c>
-      <c r="H6">
-        <v>43</v>
-      </c>
-      <c r="I6">
-        <v>43</v>
-      </c>
-      <c r="J6">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>127</v>
+      <c r="B6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>14.0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>89</v>
-      </c>
-      <c r="G7">
-        <v>47</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>39</v>
-      </c>
-      <c r="J7">
-        <v>48</v>
-      </c>
-      <c r="K7">
-        <v>53</v>
+      <c r="B7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>47</v>
-      </c>
-      <c r="H8">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>118</v>
-      </c>
-      <c r="J8">
-        <v>52</v>
-      </c>
-      <c r="K8">
-        <v>116</v>
+      <c r="B8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>92</v>
-      </c>
-      <c r="G9">
-        <v>56</v>
-      </c>
-      <c r="H9">
-        <v>95</v>
-      </c>
-      <c r="I9">
-        <v>55</v>
-      </c>
-      <c r="J9">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>102</v>
+      <c r="B9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>115</v>
-      </c>
-      <c r="G10">
-        <v>44</v>
-      </c>
-      <c r="H10">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>44</v>
-      </c>
-      <c r="J10">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>187</v>
+      <c r="B10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>47</v>
-      </c>
-      <c r="C11">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <v>44</v>
-      </c>
-      <c r="H11">
-        <v>43</v>
-      </c>
-      <c r="I11">
-        <v>42</v>
-      </c>
-      <c r="J11">
-        <v>46</v>
-      </c>
-      <c r="K11">
-        <v>65</v>
+      <c r="B11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>74</v>
-      </c>
-      <c r="G12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>41</v>
-      </c>
-      <c r="I12">
-        <v>44</v>
-      </c>
-      <c r="J12">
-        <v>47</v>
-      </c>
-      <c r="K12">
-        <v>39</v>
+      <c r="B12" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>42.0</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +871,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0BC06-4B5F-5E44-B85D-91F6002FB6E7}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -875,67 +879,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>52.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84112A7D-F4C8-A845-B106-97CD528152F5}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -953,67 +1317,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>148.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>48.0</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC32793-F8E6-1741-B913-C4A6CC331DB3}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1031,67 +1755,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA816E-50FB-A745-8459-CCDE2C476F6F}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1109,67 +2193,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FDBA7E-BAA4-BB48-89F8-4CCDA1FD2902}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1187,67 +2631,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0282E32F-70C3-8A41-B53E-7E935E031E3E}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1265,67 +3069,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621981B-FACE-A244-85E0-697A80478A81}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1343,67 +3507,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E709F0-D1A3-A449-B944-062FB82ACCA7}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1421,67 +3945,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +4375,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AEDBE4-8099-2648-A889-E9BB29943323}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K12"/>
@@ -1499,67 +4383,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
